--- a/Stagiaires/HalaFtouhGhammat.xlsx
+++ b/Stagiaires/HalaFtouhGhammat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
@@ -109,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,17 +154,17 @@
   <dxfs count="4">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -269,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,6 +304,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -495,7 +497,7 @@
     <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -515,7 +517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -532,10 +534,10 @@
         <v>42803</v>
       </c>
       <c r="F2" s="2">
-        <v>42781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -555,7 +557,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -575,7 +577,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -595,7 +597,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -615,7 +617,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -635,7 +637,7 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -655,7 +657,7 @@
         <v>42806</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -663,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -680,7 +682,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -697,7 +699,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -711,7 +713,7 @@
         <v>42806</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>

--- a/Stagiaires/HalaFtouhGhammat.xlsx
+++ b/Stagiaires/HalaFtouhGhammat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="12240" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>Tâche</t>
   </si>
@@ -22,73 +22,103 @@
     <t>Date début</t>
   </si>
   <si>
-    <t>Réalisation du prototype</t>
-  </si>
-  <si>
-    <t>TP1_PFA</t>
-  </si>
-  <si>
-    <t>TP2_PFA</t>
-  </si>
-  <si>
-    <t>TP3_PFA</t>
-  </si>
-  <si>
-    <t>TP4_PFA</t>
-  </si>
-  <si>
-    <t>TP5_PFA</t>
-  </si>
-  <si>
-    <t>TP6_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>TP7_PFA Gwin Library</t>
-  </si>
-  <si>
-    <t>Démonstration TP5_PFA</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 1 GwinApp</t>
-  </si>
-  <si>
-    <t>Démonstration du Exemple 2 GwinApp</t>
-  </si>
-  <si>
     <t>Rapport</t>
   </si>
   <si>
     <t>Rapport Version 1</t>
   </si>
   <si>
-    <t>Etape de modélisation</t>
-  </si>
-  <si>
     <t>Projet</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Utilisation de Linq</t>
-  </si>
-  <si>
-    <t>CRUD - avec Entity FrameWork</t>
-  </si>
-  <si>
-    <t>Migration automatique et manuel avec Entity Framework</t>
-  </si>
-  <si>
-    <t>Application console qui tester les différent   relation relation poosible entre les classes</t>
-  </si>
-  <si>
-    <t>Interface de mise à jour avec TabPanel</t>
-  </si>
-  <si>
-    <t>Interface de mise à jour des groupe</t>
-  </si>
-  <si>
-    <t>Interface de mise à jour des stagiaires, Groupes, Formateur, Module</t>
+    <t>Analyse technique</t>
+  </si>
+  <si>
+    <t>Date Fin</t>
+  </si>
+  <si>
+    <t>TP1_Linq</t>
+  </si>
+  <si>
+    <t>TP2_CRUD_EF_One_Classe</t>
+  </si>
+  <si>
+    <t>TP3_Migration_EF</t>
+  </si>
+  <si>
+    <t>TP4_RelationShip_EF</t>
+  </si>
+  <si>
+    <t>TP5_CRUD_EF_All_RelationShip</t>
+  </si>
+  <si>
+    <t>TP 5.1 - Insert Image with EF</t>
+  </si>
+  <si>
+    <t>TP6_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>TP7_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_One_Classe</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_One</t>
+  </si>
+  <si>
+    <t>Demo_Gwin_Many_To_Many</t>
+  </si>
+  <si>
+    <t>TP8_Gwin_All_Relation_Ship</t>
+  </si>
+  <si>
+    <t>Rapport Version 2</t>
+  </si>
+  <si>
+    <t>Test unitaire d'une EntityBLO</t>
+  </si>
+  <si>
+    <t>Auto-Formation sur GitHub pour Fork et PulRequest ( Optionnelle)</t>
+  </si>
+  <si>
+    <t>Demonstration - Intégration avec GitHub</t>
+  </si>
+  <si>
+    <t>Diagramme de context</t>
+  </si>
+  <si>
+    <t>Diagramme de cas d'utilisation et Arabe ou en français</t>
+  </si>
+  <si>
+    <t>Dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Traudction de dictionnaire de données</t>
+  </si>
+  <si>
+    <t>Diagramme de classe  en Anglais</t>
+  </si>
+  <si>
+    <t>Partage des tâches - chaque tâche contient 
+- Mini Diagramme de cas d'utilisation
+- Dictionnaire de données pour chaque classe 
+- Diagramme de classes à implémenter</t>
+  </si>
+  <si>
+    <t>Implémentation des classe C# avec fichiers ressources</t>
+  </si>
+  <si>
+    <t>Implémentation des classe BLO</t>
+  </si>
+  <si>
+    <t>Implémentation des Test unitaire de BLO</t>
+  </si>
+  <si>
+    <t>Validation et Intégration sur GitHub</t>
   </si>
   <si>
     <t>1- Niveau de compétences
@@ -97,13 +127,55 @@
 4 - Notre démarche</t>
   </si>
   <si>
-    <t>Analyse technique</t>
-  </si>
-  <si>
-    <t>Date Fin</t>
-  </si>
-  <si>
-    <t>Diagramme de classe -Club Management -</t>
+    <t>Utilisation de Linq</t>
+  </si>
+  <si>
+    <t>CRUD - avec Entity FrameWork</t>
+  </si>
+  <si>
+    <t>Migration automatique et manuel avec Entity Framework</t>
+  </si>
+  <si>
+    <t>Application console qui tester les différent   relation relation poosible entre les classes</t>
+  </si>
+  <si>
+    <t>Interface de mise à jour avec TabPanel</t>
+  </si>
+  <si>
+    <t>Interface de mise à jour des groupe</t>
+  </si>
+  <si>
+    <t>Interface de mise à jour des stagiaires, Groupes, Formateur, Module</t>
+  </si>
+  <si>
+    <t>Update- chapitre Analyse technique, par les tâches que vous avez réaliser</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Club management system</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Caputre des besoin</t>
+  </si>
+  <si>
+    <t>Analyse fonctionelle</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
   </si>
 </sst>
 </file>
@@ -139,13 +211,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,18 +273,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Taches" displayName="Tableau_Taches" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau_Taches" displayName="Tableau_Taches" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Etape de modélisation"/>
+    <tableColumn id="1" name="Phase"/>
     <tableColumn id="2" name="Projet"/>
     <tableColumn id="3" name="Tâche" dataDxfId="3"/>
     <tableColumn id="4" name="Description" dataDxfId="2"/>
@@ -481,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,56 +597,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="2">
-        <v>42803</v>
+        <v>42806</v>
       </c>
       <c r="F2" s="2">
-        <v>42803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="2">
         <v>42803</v>
@@ -557,18 +655,18 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>42803</v>
@@ -577,18 +675,18 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>42804</v>
@@ -597,18 +695,18 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>42803</v>
@@ -618,108 +716,363 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
+        <v>42803</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="2">
+        <v>42811</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F11" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2">
+        <v>42806</v>
+      </c>
+      <c r="F14" s="2">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2">
+        <v>42813</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2">
+        <v>42810</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <v>42812</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>42798</v>
-      </c>
-      <c r="F7" s="2">
-        <v>42798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2">
-        <v>42806</v>
-      </c>
-      <c r="F8" s="2">
-        <v>42806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>42802</v>
-      </c>
-      <c r="F10" s="2">
-        <v>42802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42802</v>
-      </c>
-      <c r="F11" s="2">
-        <v>42802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="2">
+        <v>42812</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2">
+        <v>42812</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2">
-        <v>42803</v>
-      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <v>42813</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
